--- a/Game Info Character.xlsx
+++ b/Game Info Character.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Potions" sheetId="2" r:id="rId2"/>
-    <sheet name="Armour" sheetId="3" r:id="rId3"/>
+    <sheet name="Physical Armour" sheetId="3" r:id="rId3"/>
+    <sheet name="Mage Armour" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>Weapon</t>
   </si>
@@ -249,6 +250,126 @@
   </si>
   <si>
     <t>When worn slain enemies drop more gold and slightly rarer Items.</t>
+  </si>
+  <si>
+    <t>Medium: Shadowed Leather</t>
+  </si>
+  <si>
+    <t>Strike First</t>
+  </si>
+  <si>
+    <t>When worn 35% chance of attacking on first turn, if first to attack on this turn deals 3% more damage</t>
+  </si>
+  <si>
+    <t>Tattered Assassins Gear</t>
+  </si>
+  <si>
+    <t>Mercinaries Armour</t>
+  </si>
+  <si>
+    <t>Heavy: Lightened Steel</t>
+  </si>
+  <si>
+    <t>Altered Armour</t>
+  </si>
+  <si>
+    <t>When worn and hit by physical damage reduce Phy Def by 1 and increase speed by 13%.</t>
+  </si>
+  <si>
+    <t>When hit by Magic Damage increase Phy Def by 2 and reduce speed by 3%.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Shadows</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Necromancy</t>
+  </si>
+  <si>
+    <t>Novice Chronomantic Robe</t>
+  </si>
+  <si>
+    <t>Light: Ashen Cloth</t>
+  </si>
+  <si>
+    <t>Novice Pyromancer's Robe</t>
+  </si>
+  <si>
+    <t>While worn, if hit by a fire attack Ignite and take 15% less damage from attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While Ignited deal 20% more damage with fire magic and take 5% less magic damage. </t>
+  </si>
+  <si>
+    <t>If not Ignited deal 7% more fire damage and take 10% less magic damage</t>
+  </si>
+  <si>
+    <t>Blazen Ash</t>
+  </si>
+  <si>
+    <t>Novice Shadowmancer's Robe</t>
+  </si>
+  <si>
+    <t>Light: Shadow Weaved Cloth</t>
+  </si>
+  <si>
+    <t>Incompassing Shadows</t>
+  </si>
+  <si>
+    <t>While worn all physical attacks that don’t have pure or light as an effect deal 4% less damage.</t>
+  </si>
+  <si>
+    <t>All shadow and darkness magic deal 10% more damage.</t>
+  </si>
+  <si>
+    <t>Novice Electromantic Robe</t>
+  </si>
+  <si>
+    <t>Light: Electrified Cloth</t>
+  </si>
+  <si>
+    <t>Electric Release</t>
+  </si>
+  <si>
+    <t>While worn increases damage from all storm magic by 12%. If hit by a physical attack deal 5 damage to attacker.</t>
+  </si>
+  <si>
+    <t>Novice Necromancer's Robe</t>
+  </si>
+  <si>
+    <t>Light: Soul Infused Cloth</t>
+  </si>
+  <si>
+    <t>Reinforcing Soul</t>
+  </si>
+  <si>
+    <t>While worn necromatic magic lasts 23% longer and deals 5% more damage. Reanimated deal 3% more damage.</t>
+  </si>
+  <si>
+    <t>Armour Type(main material)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light: Clockwork Fragment </t>
+  </si>
+  <si>
+    <t>Crack Time</t>
+  </si>
+  <si>
+    <t>while worn time magic deals 9% more damage. Once per fight either reduce damage taken from next hit to 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> or restore health to that of previous turn.</t>
   </si>
 </sst>
 </file>
@@ -921,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P7"/>
+  <dimension ref="B1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,6 +1130,224 @@
         <v>75</v>
       </c>
     </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>113</v>
+      </c>
+      <c r="S3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>105</v>
+      </c>
+      <c r="S13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="P15" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Game Info Character.xlsx
+++ b/Game Info Character.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Potions" sheetId="2" r:id="rId2"/>
-    <sheet name="Physical Armour" sheetId="3" r:id="rId3"/>
-    <sheet name="Mage Armour" sheetId="4" r:id="rId4"/>
+    <sheet name="Spell" sheetId="5" r:id="rId3"/>
+    <sheet name="Physical Armour" sheetId="3" r:id="rId4"/>
+    <sheet name="Mage Armour" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="160">
   <si>
     <t>Weapon</t>
   </si>
@@ -370,6 +371,138 @@
   </si>
   <si>
     <t xml:space="preserve"> or restore health to that of previous turn.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Fracture Moment</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>15 damage</t>
+  </si>
+  <si>
+    <t>No extra</t>
+  </si>
+  <si>
+    <t>Rewind</t>
+  </si>
+  <si>
+    <t>Heal 20</t>
+  </si>
+  <si>
+    <t>Three turn cooldown</t>
+  </si>
+  <si>
+    <t>Flame Orb</t>
+  </si>
+  <si>
+    <t>13 damage</t>
+  </si>
+  <si>
+    <t>deals 4 extra fire damge to weak opponets</t>
+  </si>
+  <si>
+    <t>Fire Stream</t>
+  </si>
+  <si>
+    <t>17 damage</t>
+  </si>
+  <si>
+    <t>Consuming Dark</t>
+  </si>
+  <si>
+    <t>14 damage</t>
+  </si>
+  <si>
+    <t>Heal for 1/4 of total damage dealt</t>
+  </si>
+  <si>
+    <t>Approaching Shadow</t>
+  </si>
+  <si>
+    <t>Defence 2</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Scorch</t>
+  </si>
+  <si>
+    <t>Stolen Life</t>
+  </si>
+  <si>
+    <t>Shatter</t>
+  </si>
+  <si>
+    <t>After 3 turns Approaching Shadow will shatter dealing 32% of damage taken while it was active to enemy. Caps at 200.</t>
+  </si>
+  <si>
+    <t>Electrify</t>
+  </si>
+  <si>
+    <t>Damage 10</t>
+  </si>
+  <si>
+    <t>Energize</t>
+  </si>
+  <si>
+    <t>Paralysis</t>
+  </si>
+  <si>
+    <t>Has a .01% chance of paralyzing enemy for their next turn.</t>
+  </si>
+  <si>
+    <t>Next physical attacks deal 3 Air damage. Next spell deals 5 Air damage, If spell is storm type deals extra 10 damage instead.</t>
+  </si>
+  <si>
+    <t>Gathering Storm</t>
+  </si>
+  <si>
+    <t>Magnifies</t>
+  </si>
+  <si>
+    <t>Damage 9</t>
+  </si>
+  <si>
+    <t>Deals 9 damage for 3 turns after which spell triggers dealing extra 30 damage. While spell charges all storm magic is amplified by 1 tier once triggered magnification ends.</t>
+  </si>
+  <si>
+    <t>Collect Soul</t>
+  </si>
+  <si>
+    <t>Death 1</t>
+  </si>
+  <si>
+    <t>Instantly kills enemy with 3 health or less. Upon death, if enemy is level 5 or less and 5 turns haven't passed since casting, collect soul. (soul counter +1)</t>
+  </si>
+  <si>
+    <t>Raise Undead Skeleton</t>
+  </si>
+  <si>
+    <t>Consume 1</t>
+  </si>
+  <si>
+    <t>Unstable 6</t>
+  </si>
+  <si>
+    <t>Raises Skeleton with 30 health, 20 physical damage, and no defence. Using spell consumes collected soul (Soul Counter -1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Each turn reduce unstable counter by 1, If counter equals 0 kill skeleton. If no soul counters are held spell fizzles.</t>
+  </si>
+  <si>
+    <t>Undead Screech</t>
   </si>
 </sst>
 </file>
@@ -1042,9 +1175,250 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1180,7 +1554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>

--- a/Game Info Character.xlsx
+++ b/Game Info Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="170">
   <si>
     <t>Weapon</t>
   </si>
@@ -277,9 +277,6 @@
     <t>When worn and hit by physical damage reduce Phy Def by 1 and increase speed by 13%.</t>
   </si>
   <si>
-    <t>When hit by Magic Damage increase Phy Def by 2 and reduce speed by 3%.</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -503,6 +500,39 @@
   </si>
   <si>
     <t>Undead Screech</t>
+  </si>
+  <si>
+    <t>Damage 5</t>
+  </si>
+  <si>
+    <t>Chorus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If in control of Risen Undead deals 3 extra damage. </t>
+  </si>
+  <si>
+    <t>Element Type</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Darkness</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>When hit by Magic Damage increase Phy Def by 2 and reduce speed by 20%.</t>
   </si>
 </sst>
 </file>
@@ -1175,238 +1205,283 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="C3" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" t="s">
         <v>121</v>
       </c>
-      <c r="J3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>123</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" t="s">
         <v>124</v>
       </c>
-      <c r="J5" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" t="s">
         <v>127</v>
       </c>
-      <c r="J7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" t="s">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>129</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
         <v>130</v>
-      </c>
-      <c r="J9" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" t="s">
         <v>132</v>
       </c>
-      <c r="J11" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" t="s">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>134</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" t="s">
         <v>139</v>
       </c>
-      <c r="L13" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>141</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
         <v>142</v>
       </c>
-      <c r="J15" t="s">
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
         <v>143</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>147</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
         <v>148</v>
       </c>
       <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>151</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" t="s">
+        <v>135</v>
+      </c>
+      <c r="N20" t="s">
         <v>152</v>
       </c>
-      <c r="J20" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" t="s">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>154</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" t="s">
         <v>155</v>
       </c>
-      <c r="J22" t="s">
+      <c r="N22" t="s">
         <v>156</v>
       </c>
-      <c r="L22" t="s">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L23" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>159</v>
       </c>
       <c r="F25">
         <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" t="s">
+        <v>160</v>
+      </c>
+      <c r="N25" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1418,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1621,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1566,13 +1641,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -1589,13 +1664,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J3">
         <v>7</v>
@@ -1604,26 +1679,26 @@
         <v>12</v>
       </c>
       <c r="P3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S3" t="s">
         <v>113</v>
-      </c>
-      <c r="S3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -1632,31 +1707,31 @@
         <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -1665,26 +1740,26 @@
         <v>10</v>
       </c>
       <c r="P10" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" t="s">
         <v>100</v>
-      </c>
-      <c r="S10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
         <v>103</v>
-      </c>
-      <c r="F13" t="s">
-        <v>104</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1693,21 +1768,21 @@
         <v>11</v>
       </c>
       <c r="P13" t="s">
+        <v>104</v>
+      </c>
+      <c r="S13" t="s">
         <v>105</v>
-      </c>
-      <c r="S13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
         <v>107</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -1716,10 +1791,10 @@
         <v>13</v>
       </c>
       <c r="P15" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" t="s">
         <v>109</v>
-      </c>
-      <c r="S15" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Game Info Character.xlsx
+++ b/Game Info Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>MagAtk + 2 for all spells</t>
   </si>
   <si>
-    <t>Deals 6 Dmg per turn</t>
-  </si>
-  <si>
     <t>Deals 4 extra damage to neutral creatures, x2 to weak, 1/2 to resistent</t>
   </si>
   <si>
@@ -533,6 +530,9 @@
   </si>
   <si>
     <t>When hit by Magic Damage increase Phy Def by 2 and reduce speed by 20%.</t>
+  </si>
+  <si>
+    <t>Deals 6 Dmg per turn. Once per fight.</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +933,7 @@
         <v>13</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>20</v>
       </c>
       <c r="S12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -1067,19 +1067,19 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
         <v>18</v>
@@ -1087,115 +1087,115 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
       <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
         <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>58</v>
-      </c>
-      <c r="J12" t="s">
-        <v>59</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -1215,273 +1215,273 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J1" t="s">
-        <v>116</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" t="s">
         <v>120</v>
-      </c>
-      <c r="L3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N5" t="s">
         <v>123</v>
-      </c>
-      <c r="L5" t="s">
-        <v>135</v>
-      </c>
-      <c r="N5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" t="s">
         <v>126</v>
-      </c>
-      <c r="L7" t="s">
-        <v>136</v>
-      </c>
-      <c r="N7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11" t="s">
         <v>131</v>
-      </c>
-      <c r="L11" t="s">
-        <v>137</v>
-      </c>
-      <c r="N11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" t="s">
         <v>138</v>
-      </c>
-      <c r="N13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
         <v>141</v>
       </c>
-      <c r="L15" t="s">
-        <v>142</v>
-      </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" t="s">
         <v>143</v>
-      </c>
-      <c r="N16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" t="s">
         <v>148</v>
-      </c>
-      <c r="L18" t="s">
-        <v>147</v>
-      </c>
-      <c r="N18" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N20" t="s">
         <v>151</v>
-      </c>
-      <c r="L20" t="s">
-        <v>135</v>
-      </c>
-      <c r="N20" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J22" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" t="s">
         <v>154</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>155</v>
-      </c>
-      <c r="N22" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J25" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" t="s">
         <v>159</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>160</v>
-      </c>
-      <c r="N25" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -1501,10 +1501,10 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1513,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
         <v>18</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
         <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -1533,18 +1533,18 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
         <v>66</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
         <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1553,18 +1553,18 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s">
         <v>70</v>
-      </c>
-      <c r="P5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
         <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -1573,18 +1573,18 @@
         <v>3</v>
       </c>
       <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s">
         <v>74</v>
-      </c>
-      <c r="P7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1593,18 +1593,18 @@
         <v>8</v>
       </c>
       <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
         <v>77</v>
-      </c>
-      <c r="P9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
         <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
       </c>
       <c r="H11">
         <v>13</v>
@@ -1613,15 +1613,15 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
         <v>82</v>
-      </c>
-      <c r="P11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1641,13 +1641,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -1656,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S1" t="s">
         <v>18</v>
@@ -1664,13 +1664,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J3">
         <v>7</v>
@@ -1679,26 +1679,26 @@
         <v>12</v>
       </c>
       <c r="P3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S3" t="s">
         <v>112</v>
-      </c>
-      <c r="S3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -1707,31 +1707,31 @@
         <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
         <v>97</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -1740,26 +1740,26 @@
         <v>10</v>
       </c>
       <c r="P10" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" t="s">
         <v>99</v>
-      </c>
-      <c r="S10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
         <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1768,21 +1768,21 @@
         <v>11</v>
       </c>
       <c r="P13" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" t="s">
         <v>104</v>
-      </c>
-      <c r="S13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
         <v>106</v>
-      </c>
-      <c r="F15" t="s">
-        <v>107</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -1791,10 +1791,10 @@
         <v>13</v>
       </c>
       <c r="P15" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" t="s">
         <v>108</v>
-      </c>
-      <c r="S15" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Game Info Character.xlsx
+++ b/Game Info Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,6 @@
     <t>Strike First</t>
   </si>
   <si>
-    <t>When worn 35% chance of attacking on first turn, if first to attack on this turn deals 3% more damage</t>
-  </si>
-  <si>
     <t>Tattered Assassins Gear</t>
   </si>
   <si>
@@ -533,6 +530,9 @@
   </si>
   <si>
     <t>Deals 6 Dmg per turn. Once per fight.</t>
+  </si>
+  <si>
+    <t>When worn 35% chance of attacking first on first turn, if first to attack on this turn deals 3% more damage</t>
   </si>
 </sst>
 </file>
@@ -933,7 +933,7 @@
         <v>13</v>
       </c>
       <c r="S5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -1215,273 +1215,273 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" t="s">
-        <v>115</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" t="s">
         <v>119</v>
-      </c>
-      <c r="L3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" t="s">
         <v>122</v>
-      </c>
-      <c r="L5" t="s">
-        <v>134</v>
-      </c>
-      <c r="N5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" t="s">
         <v>125</v>
-      </c>
-      <c r="L7" t="s">
-        <v>135</v>
-      </c>
-      <c r="N7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" t="s">
         <v>130</v>
-      </c>
-      <c r="L11" t="s">
-        <v>136</v>
-      </c>
-      <c r="N11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" t="s">
         <v>137</v>
-      </c>
-      <c r="N13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
         <v>140</v>
       </c>
-      <c r="L15" t="s">
-        <v>141</v>
-      </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N16" t="s">
         <v>142</v>
-      </c>
-      <c r="N16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" t="s">
         <v>147</v>
-      </c>
-      <c r="L18" t="s">
-        <v>146</v>
-      </c>
-      <c r="N18" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N20" t="s">
         <v>150</v>
-      </c>
-      <c r="L20" t="s">
-        <v>134</v>
-      </c>
-      <c r="N20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J22" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" t="s">
         <v>153</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>154</v>
-      </c>
-      <c r="N22" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J25" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" t="s">
         <v>158</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>159</v>
-      </c>
-      <c r="N25" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1494,7 @@
   <dimension ref="B1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
         <v>75</v>
@@ -1596,15 +1596,15 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
         <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
       </c>
       <c r="H11">
         <v>13</v>
@@ -1613,15 +1613,15 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s">
         <v>81</v>
-      </c>
-      <c r="P11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
@@ -1641,13 +1641,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -1664,13 +1664,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J3">
         <v>7</v>
@@ -1679,26 +1679,26 @@
         <v>12</v>
       </c>
       <c r="P3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" t="s">
         <v>111</v>
-      </c>
-      <c r="S3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -1707,31 +1707,31 @@
         <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
         <v>96</v>
-      </c>
-      <c r="F10" t="s">
-        <v>97</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -1740,26 +1740,26 @@
         <v>10</v>
       </c>
       <c r="P10" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" t="s">
         <v>98</v>
-      </c>
-      <c r="S10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
         <v>101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>102</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1768,21 +1768,21 @@
         <v>11</v>
       </c>
       <c r="P13" t="s">
+        <v>102</v>
+      </c>
+      <c r="S13" t="s">
         <v>103</v>
-      </c>
-      <c r="S13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
         <v>105</v>
-      </c>
-      <c r="F15" t="s">
-        <v>106</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -1791,10 +1791,10 @@
         <v>13</v>
       </c>
       <c r="P15" t="s">
+        <v>106</v>
+      </c>
+      <c r="S15" t="s">
         <v>107</v>
-      </c>
-      <c r="S15" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Game Info Character.xlsx
+++ b/Game Info Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
